--- a/VIT_Interval_thru2014.xlsx
+++ b/VIT_Interval_thru2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21840" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VIT_Interval_4" sheetId="1" r:id="rId1"/>
@@ -3372,7 +3372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I558" sqref="I558"/>
     </sheetView>
@@ -28073,8 +28073,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L581"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F563" sqref="F563"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H563" sqref="H563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49481,7 +49481,7 @@
         <v>157</v>
       </c>
       <c r="K563" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L563" s="29" t="s">
         <v>157</v>

--- a/VIT_Interval_thru2014.xlsx
+++ b/VIT_Interval_thru2014.xlsx
@@ -3373,8 +3373,8 @@
   <dimension ref="A1:N576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I558" sqref="I558"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G560" sqref="G560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25899,7 +25899,7 @@
         <v>41690</v>
       </c>
       <c r="F560" s="9">
-        <v>74652</v>
+        <v>41780</v>
       </c>
       <c r="G560" s="9">
         <v>41781</v>
@@ -28070,11 +28070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H563" sqref="H563"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="G560" sqref="G560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28131,7 +28130,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -28169,7 +28168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -28207,7 +28206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>716</v>
       </c>
@@ -28245,7 +28244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>732</v>
       </c>
@@ -28283,7 +28282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>484</v>
       </c>
@@ -28321,7 +28320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>740</v>
       </c>
@@ -28359,7 +28358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -28397,7 +28396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>668</v>
       </c>
@@ -28435,7 +28434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>742</v>
       </c>
@@ -28473,7 +28472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>744</v>
       </c>
@@ -28511,7 +28510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>554</v>
       </c>
@@ -28549,7 +28548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>554</v>
       </c>
@@ -28587,7 +28586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>734</v>
       </c>
@@ -28625,7 +28624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -28663,7 +28662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>473</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>473</v>
       </c>
@@ -28739,7 +28738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -28777,7 +28776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>714</v>
       </c>
@@ -28815,7 +28814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>408</v>
       </c>
@@ -28853,7 +28852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>408</v>
       </c>
@@ -28891,7 +28890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>723</v>
       </c>
@@ -28929,7 +28928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>738</v>
       </c>
@@ -28967,7 +28966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -29005,7 +29004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -29043,7 +29042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -29081,7 +29080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -29119,7 +29118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>730</v>
       </c>
@@ -29157,7 +29156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -29195,7 +29194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -29233,7 +29232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -29271,7 +29270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>442</v>
       </c>
@@ -29309,7 +29308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>442</v>
       </c>
@@ -29347,7 +29346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>451</v>
       </c>
@@ -29385,7 +29384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>451</v>
       </c>
@@ -29423,7 +29422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>294</v>
       </c>
@@ -29461,7 +29460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -29499,7 +29498,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -29537,7 +29536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -29575,7 +29574,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>354</v>
       </c>
@@ -29613,7 +29612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -29651,7 +29650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -29689,7 +29688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>441</v>
       </c>
@@ -29727,7 +29726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>441</v>
       </c>
@@ -29765,7 +29764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>300</v>
       </c>
@@ -29803,7 +29802,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>300</v>
       </c>
@@ -29841,7 +29840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>291</v>
       </c>
@@ -29879,7 +29878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>291</v>
       </c>
@@ -29917,7 +29916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -29955,7 +29954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>665</v>
       </c>
@@ -29993,7 +29992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -30031,7 +30030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -30069,7 +30068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -30107,7 +30106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>169</v>
       </c>
@@ -30145,7 +30144,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -30183,7 +30182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -30221,7 +30220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>386</v>
       </c>
@@ -30259,7 +30258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -30297,7 +30296,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -30335,7 +30334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -30373,7 +30372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>384</v>
       </c>
@@ -30411,7 +30410,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>384</v>
       </c>
@@ -30449,7 +30448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>384</v>
       </c>
@@ -30487,7 +30486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -30525,7 +30524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -30563,7 +30562,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>444</v>
       </c>
@@ -30601,7 +30600,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>444</v>
       </c>
@@ -30639,7 +30638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>694</v>
       </c>
@@ -30677,7 +30676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>694</v>
       </c>
@@ -30715,7 +30714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -30753,7 +30752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -30791,7 +30790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>771</v>
       </c>
@@ -30829,7 +30828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>349</v>
       </c>
@@ -30867,7 +30866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -30905,7 +30904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>349</v>
       </c>
@@ -30943,7 +30942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>461</v>
       </c>
@@ -30981,7 +30980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -31019,7 +31018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -31057,7 +31056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>460</v>
       </c>
@@ -31095,7 +31094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>767</v>
       </c>
@@ -31133,7 +31132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>772</v>
       </c>
@@ -31171,7 +31170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>763</v>
       </c>
@@ -31209,7 +31208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>754</v>
       </c>
@@ -31247,7 +31246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>769</v>
       </c>
@@ -31285,7 +31284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>761</v>
       </c>
@@ -31323,7 +31322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>765</v>
       </c>
@@ -31361,7 +31360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>540</v>
       </c>
@@ -31399,7 +31398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -31437,7 +31436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>467</v>
       </c>
@@ -31475,7 +31474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>119</v>
       </c>
@@ -31513,7 +31512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>784</v>
       </c>
@@ -31589,7 +31588,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>478</v>
       </c>
@@ -31627,7 +31626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>429</v>
       </c>
@@ -31665,7 +31664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>755</v>
       </c>
@@ -31703,7 +31702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>760</v>
       </c>
@@ -31741,7 +31740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>758</v>
       </c>
@@ -31779,7 +31778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>780</v>
       </c>
@@ -31817,7 +31816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>750</v>
       </c>
@@ -31855,7 +31854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>748</v>
       </c>
@@ -31893,7 +31892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>752</v>
       </c>
@@ -31931,7 +31930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>787</v>
       </c>
@@ -31969,7 +31968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>463</v>
       </c>
@@ -32007,7 +32006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>463</v>
       </c>
@@ -32045,7 +32044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>465</v>
       </c>
@@ -32083,7 +32082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>471</v>
       </c>
@@ -32121,7 +32120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>469</v>
       </c>
@@ -32159,7 +32158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>474</v>
       </c>
@@ -32197,7 +32196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>756</v>
       </c>
@@ -32235,7 +32234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>774</v>
       </c>
@@ -32273,7 +32272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>456</v>
       </c>
@@ -32311,7 +32310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>782</v>
       </c>
@@ -32349,7 +32348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>778</v>
       </c>
@@ -32387,7 +32386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>449</v>
       </c>
@@ -32425,7 +32424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>452</v>
       </c>
@@ -32463,7 +32462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -32501,7 +32500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>453</v>
       </c>
@@ -32539,7 +32538,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>447</v>
       </c>
@@ -32577,7 +32576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>450</v>
       </c>
@@ -32615,7 +32614,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -32653,7 +32652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>292</v>
       </c>
@@ -32691,7 +32690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>448</v>
       </c>
@@ -32729,7 +32728,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -32767,7 +32766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -32805,7 +32804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>182</v>
       </c>
@@ -32843,7 +32842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>445</v>
       </c>
@@ -32881,7 +32880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>443</v>
       </c>
@@ -32919,7 +32918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>544</v>
       </c>
@@ -32957,7 +32956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>546</v>
       </c>
@@ -32995,7 +32994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>548</v>
       </c>
@@ -33033,7 +33032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>415</v>
       </c>
@@ -33071,7 +33070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -33109,7 +33108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>422</v>
       </c>
@@ -33147,7 +33146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>368</v>
       </c>
@@ -33185,7 +33184,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>368</v>
       </c>
@@ -33223,7 +33222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -33261,7 +33260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>528</v>
       </c>
@@ -33299,7 +33298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>185</v>
       </c>
@@ -33337,7 +33336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>475</v>
       </c>
@@ -33375,7 +33374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>480</v>
       </c>
@@ -33413,7 +33412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>531</v>
       </c>
@@ -33451,7 +33450,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>186</v>
       </c>
@@ -33489,7 +33488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -33527,7 +33526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>497</v>
       </c>
@@ -33565,7 +33564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>426</v>
       </c>
@@ -33603,7 +33602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>501</v>
       </c>
@@ -33641,7 +33640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>499</v>
       </c>
@@ -33679,7 +33678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>524</v>
       </c>
@@ -33717,7 +33716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>488</v>
       </c>
@@ -33755,7 +33754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>410</v>
       </c>
@@ -33793,7 +33792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>517</v>
       </c>
@@ -33831,7 +33830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>518</v>
       </c>
@@ -33869,7 +33868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>413</v>
       </c>
@@ -33907,7 +33906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>389</v>
       </c>
@@ -33945,7 +33944,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>389</v>
       </c>
@@ -33983,7 +33982,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>396</v>
       </c>
@@ -34021,7 +34020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>492</v>
       </c>
@@ -34059,7 +34058,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -34097,7 +34096,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>529</v>
       </c>
@@ -34135,7 +34134,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>431</v>
       </c>
@@ -34173,7 +34172,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>525</v>
       </c>
@@ -34211,7 +34210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>404</v>
       </c>
@@ -34249,7 +34248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>537</v>
       </c>
@@ -34287,7 +34286,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>509</v>
       </c>
@@ -34325,7 +34324,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>532</v>
       </c>
@@ -34363,7 +34362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>532</v>
       </c>
@@ -34401,7 +34400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>424</v>
       </c>
@@ -34439,7 +34438,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>550</v>
       </c>
@@ -34477,7 +34476,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>534</v>
       </c>
@@ -34515,7 +34514,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>494</v>
       </c>
@@ -34553,7 +34552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>391</v>
       </c>
@@ -34591,7 +34590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>391</v>
       </c>
@@ -34629,7 +34628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>483</v>
       </c>
@@ -34667,7 +34666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>487</v>
       </c>
@@ -34705,7 +34704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -34743,7 +34742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -34781,7 +34780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -34819,7 +34818,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -34857,7 +34856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -34895,7 +34894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>495</v>
       </c>
@@ -34933,7 +34932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>495</v>
       </c>
@@ -34971,7 +34970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>419</v>
       </c>
@@ -35009,7 +35008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>219</v>
       </c>
@@ -35047,7 +35046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -35085,7 +35084,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>552</v>
       </c>
@@ -35123,7 +35122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>527</v>
       </c>
@@ -35161,7 +35160,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>527</v>
       </c>
@@ -35199,7 +35198,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>417</v>
       </c>
@@ -35237,7 +35236,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>301</v>
       </c>
@@ -35275,7 +35274,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>301</v>
       </c>
@@ -35313,7 +35312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>486</v>
       </c>
@@ -35351,7 +35350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>507</v>
       </c>
@@ -35389,7 +35388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>490</v>
       </c>
@@ -35427,7 +35426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>56</v>
       </c>
@@ -35465,7 +35464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>56</v>
       </c>
@@ -35503,7 +35502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>515</v>
       </c>
@@ -35541,7 +35540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -35579,7 +35578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>535</v>
       </c>
@@ -35617,7 +35616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>542</v>
       </c>
@@ -35655,7 +35654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>401</v>
       </c>
@@ -35693,7 +35692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>519</v>
       </c>
@@ -35731,7 +35730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>399</v>
       </c>
@@ -35769,7 +35768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>521</v>
       </c>
@@ -35807,7 +35806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -35845,7 +35844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>359</v>
       </c>
@@ -35883,7 +35882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>505</v>
       </c>
@@ -35921,7 +35920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>477</v>
       </c>
@@ -35959,7 +35958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>560</v>
       </c>
@@ -35997,7 +35996,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -36035,7 +36034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>561</v>
       </c>
@@ -36073,7 +36072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>562</v>
       </c>
@@ -36111,7 +36110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -36149,7 +36148,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>563</v>
       </c>
@@ -36187,7 +36186,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>558</v>
       </c>
@@ -36225,7 +36224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>565</v>
       </c>
@@ -36263,7 +36262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>564</v>
       </c>
@@ -36301,7 +36300,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>566</v>
       </c>
@@ -36339,7 +36338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -36377,7 +36376,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -36415,7 +36414,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>568</v>
       </c>
@@ -36453,7 +36452,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>569</v>
       </c>
@@ -36491,7 +36490,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>570</v>
       </c>
@@ -36529,7 +36528,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>559</v>
       </c>
@@ -36567,7 +36566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>571</v>
       </c>
@@ -36605,7 +36604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>572</v>
       </c>
@@ -36643,7 +36642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>573</v>
       </c>
@@ -36681,7 +36680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>574</v>
       </c>
@@ -36719,7 +36718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>557</v>
       </c>
@@ -36757,7 +36756,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>575</v>
       </c>
@@ -36795,7 +36794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>673</v>
       </c>
@@ -36833,7 +36832,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>576</v>
       </c>
@@ -36871,7 +36870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>577</v>
       </c>
@@ -36909,7 +36908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>578</v>
       </c>
@@ -36947,7 +36946,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>579</v>
       </c>
@@ -36985,7 +36984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>556</v>
       </c>
@@ -37023,7 +37022,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>440</v>
       </c>
@@ -37061,7 +37060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>436</v>
       </c>
@@ -37099,7 +37098,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>439</v>
       </c>
@@ -37137,7 +37136,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>671</v>
       </c>
@@ -37175,7 +37174,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>433</v>
       </c>
@@ -37213,7 +37212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>437</v>
       </c>
@@ -37251,7 +37250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>282</v>
       </c>
@@ -37289,7 +37288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>282</v>
       </c>
@@ -37327,7 +37326,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>438</v>
       </c>
@@ -37365,7 +37364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>434</v>
       </c>
@@ -37403,7 +37402,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -37441,7 +37440,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>435</v>
       </c>
@@ -37479,7 +37478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>667</v>
       </c>
@@ -37517,7 +37516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>225</v>
       </c>
@@ -37555,7 +37554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -37593,7 +37592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>229</v>
       </c>
@@ -37631,7 +37630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -37669,7 +37668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>229</v>
       </c>
@@ -37707,7 +37706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>230</v>
       </c>
@@ -37745,7 +37744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>231</v>
       </c>
@@ -37783,7 +37782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>232</v>
       </c>
@@ -37821,7 +37820,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>296</v>
       </c>
@@ -37859,7 +37858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -37897,7 +37896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -37935,7 +37934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>233</v>
       </c>
@@ -37973,7 +37972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -38011,7 +38010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>269</v>
       </c>
@@ -38049,7 +38048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -38087,7 +38086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>581</v>
       </c>
@@ -38125,7 +38124,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>235</v>
       </c>
@@ -38163,7 +38162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -38201,7 +38200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>580</v>
       </c>
@@ -38239,7 +38238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -38277,7 +38276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -38315,7 +38314,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>583</v>
       </c>
@@ -38353,7 +38352,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>584</v>
       </c>
@@ -38391,7 +38390,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -38429,7 +38428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>297</v>
       </c>
@@ -38467,7 +38466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>236</v>
       </c>
@@ -38505,7 +38504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>295</v>
       </c>
@@ -38543,7 +38542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>270</v>
       </c>
@@ -38581,7 +38580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -38657,7 +38656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -38695,7 +38694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -38733,7 +38732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>582</v>
       </c>
@@ -38771,7 +38770,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>265</v>
       </c>
@@ -38809,7 +38808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>280</v>
       </c>
@@ -38847,7 +38846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>663</v>
       </c>
@@ -38885,7 +38884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -38923,7 +38922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -38961,7 +38960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>303</v>
       </c>
@@ -38999,7 +38998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>239</v>
       </c>
@@ -39037,7 +39036,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>241</v>
       </c>
@@ -39075,7 +39074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>242</v>
       </c>
@@ -39113,7 +39112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -39151,7 +39150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>288</v>
       </c>
@@ -39189,7 +39188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -39227,7 +39226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>664</v>
       </c>
@@ -39265,7 +39264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>290</v>
       </c>
@@ -39303,7 +39302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -39341,7 +39340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>609</v>
       </c>
@@ -39379,7 +39378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>609</v>
       </c>
@@ -39417,7 +39416,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>670</v>
       </c>
@@ -39455,7 +39454,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>243</v>
       </c>
@@ -39493,7 +39492,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>287</v>
       </c>
@@ -39531,7 +39530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>286</v>
       </c>
@@ -39569,7 +39568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>244</v>
       </c>
@@ -39607,7 +39606,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>245</v>
       </c>
@@ -39645,7 +39644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>247</v>
       </c>
@@ -39683,7 +39682,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>248</v>
       </c>
@@ -39721,7 +39720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>249</v>
       </c>
@@ -39759,7 +39758,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>250</v>
       </c>
@@ -39797,7 +39796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>672</v>
       </c>
@@ -39835,7 +39834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>251</v>
       </c>
@@ -39873,7 +39872,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>776</v>
       </c>
@@ -39911,7 +39910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>617</v>
       </c>
@@ -39949,7 +39948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>627</v>
       </c>
@@ -39987,7 +39986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -40025,7 +40024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>356</v>
       </c>
@@ -40063,7 +40062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>631</v>
       </c>
@@ -40101,7 +40100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>358</v>
       </c>
@@ -40139,7 +40138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>337</v>
       </c>
@@ -40177,7 +40176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>585</v>
       </c>
@@ -40215,7 +40214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>141</v>
       </c>
@@ -40253,7 +40252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>141</v>
       </c>
@@ -40291,7 +40290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>333</v>
       </c>
@@ -40329,7 +40328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>335</v>
       </c>
@@ -40367,7 +40366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>332</v>
       </c>
@@ -40405,7 +40404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>342</v>
       </c>
@@ -40443,7 +40442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>343</v>
       </c>
@@ -40481,7 +40480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>622</v>
       </c>
@@ -40519,7 +40518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>375</v>
       </c>
@@ -40557,7 +40556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -40595,7 +40594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>591</v>
       </c>
@@ -40633,7 +40632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>619</v>
       </c>
@@ -40671,7 +40670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>692</v>
       </c>
@@ -40709,7 +40708,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>373</v>
       </c>
@@ -40747,7 +40746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>380</v>
       </c>
@@ -40785,7 +40784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>382</v>
       </c>
@@ -40823,7 +40822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>624</v>
       </c>
@@ -40861,7 +40860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>326</v>
       </c>
@@ -40899,7 +40898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>362</v>
       </c>
@@ -40937,7 +40936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>370</v>
       </c>
@@ -40975,7 +40974,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>364</v>
       </c>
@@ -41013,7 +41012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>377</v>
       </c>
@@ -41051,7 +41050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>606</v>
       </c>
@@ -41089,7 +41088,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>632</v>
       </c>
@@ -41127,7 +41126,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>620</v>
       </c>
@@ -41165,7 +41164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>618</v>
       </c>
@@ -41203,7 +41202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>388</v>
       </c>
@@ -41241,7 +41240,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>610</v>
       </c>
@@ -41279,7 +41278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>613</v>
       </c>
@@ -41355,7 +41354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>252</v>
       </c>
@@ -41393,7 +41392,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>596</v>
       </c>
@@ -41431,7 +41430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>598</v>
       </c>
@@ -41469,7 +41468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>604</v>
       </c>
@@ -41507,7 +41506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>254</v>
       </c>
@@ -41545,7 +41544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>351</v>
       </c>
@@ -41583,7 +41582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>255</v>
       </c>
@@ -41621,7 +41620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>594</v>
       </c>
@@ -41659,7 +41658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>590</v>
       </c>
@@ -41697,7 +41696,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>345</v>
       </c>
@@ -41735,7 +41734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>615</v>
       </c>
@@ -41773,7 +41772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>148</v>
       </c>
@@ -41811,7 +41810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>600</v>
       </c>
@@ -41849,7 +41848,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>601</v>
       </c>
@@ -41887,7 +41886,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>371</v>
       </c>
@@ -41925,7 +41924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>328</v>
       </c>
@@ -42001,7 +42000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>378</v>
       </c>
@@ -42039,7 +42038,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>393</v>
       </c>
@@ -42077,7 +42076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>366</v>
       </c>
@@ -42115,7 +42114,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>629</v>
       </c>
@@ -42153,7 +42152,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>587</v>
       </c>
@@ -42191,7 +42190,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>697</v>
       </c>
@@ -42229,7 +42228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>607</v>
       </c>
@@ -42267,7 +42266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>259</v>
       </c>
@@ -42305,7 +42304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>540</v>
       </c>
@@ -42343,7 +42342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>146</v>
       </c>
@@ -42381,7 +42380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>260</v>
       </c>
@@ -42419,7 +42418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>126</v>
       </c>
@@ -42457,7 +42456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>544</v>
       </c>
@@ -42495,7 +42494,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>703</v>
       </c>
@@ -42533,7 +42532,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>704</v>
       </c>
@@ -42571,7 +42570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>262</v>
       </c>
@@ -42609,7 +42608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>264</v>
       </c>
@@ -42647,7 +42646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>705</v>
       </c>
@@ -42685,7 +42684,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>706</v>
       </c>
@@ -42723,7 +42722,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>707</v>
       </c>
@@ -42761,7 +42760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>708</v>
       </c>
@@ -42799,7 +42798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>709</v>
       </c>
@@ -42837,7 +42836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>710</v>
       </c>
@@ -42875,7 +42874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>711</v>
       </c>
@@ -42913,7 +42912,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>712</v>
       </c>
@@ -42951,7 +42950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>713</v>
       </c>
@@ -42989,7 +42988,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>195</v>
       </c>
@@ -43027,7 +43026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>634</v>
       </c>
@@ -43065,7 +43064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>635</v>
       </c>
@@ -43103,7 +43102,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>636</v>
       </c>
@@ -43141,7 +43140,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>637</v>
       </c>
@@ -43179,7 +43178,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>197</v>
       </c>
@@ -43217,7 +43216,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>198</v>
       </c>
@@ -43255,7 +43254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>638</v>
       </c>
@@ -43293,7 +43292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>639</v>
       </c>
@@ -43331,7 +43330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>640</v>
       </c>
@@ -43369,7 +43368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>641</v>
       </c>
@@ -43407,7 +43406,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>642</v>
       </c>
@@ -43445,7 +43444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>643</v>
       </c>
@@ -43483,7 +43482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>199</v>
       </c>
@@ -43521,7 +43520,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>654</v>
       </c>
@@ -43559,7 +43558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>644</v>
       </c>
@@ -43597,7 +43596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>645</v>
       </c>
@@ -43635,7 +43634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>655</v>
       </c>
@@ -43673,7 +43672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>200</v>
       </c>
@@ -43711,7 +43710,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>656</v>
       </c>
@@ -43749,7 +43748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>657</v>
       </c>
@@ -43787,7 +43786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>646</v>
       </c>
@@ -43825,7 +43824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>201</v>
       </c>
@@ -43863,7 +43862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>658</v>
       </c>
@@ -43901,7 +43900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>659</v>
       </c>
@@ -43939,7 +43938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>647</v>
       </c>
@@ -43977,7 +43976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>648</v>
       </c>
@@ -44015,7 +44014,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>660</v>
       </c>
@@ -44053,7 +44052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>649</v>
       </c>
@@ -44091,7 +44090,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>202</v>
       </c>
@@ -44129,7 +44128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>203</v>
       </c>
@@ -44167,7 +44166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>650</v>
       </c>
@@ -44205,7 +44204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>151</v>
       </c>
@@ -44243,7 +44242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>651</v>
       </c>
@@ -44281,7 +44280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>652</v>
       </c>
@@ -44319,7 +44318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>661</v>
       </c>
@@ -44357,7 +44356,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>653</v>
       </c>
@@ -44395,7 +44394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>662</v>
       </c>
@@ -44433,7 +44432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>674</v>
       </c>
@@ -44471,7 +44470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>675</v>
       </c>
@@ -44509,7 +44508,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>137</v>
       </c>
@@ -44547,7 +44546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>699</v>
       </c>
@@ -44585,7 +44584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>605</v>
       </c>
@@ -44623,7 +44622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>133</v>
       </c>
@@ -44661,7 +44660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>135</v>
       </c>
@@ -44699,7 +44698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>130</v>
       </c>
@@ -44737,7 +44736,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>676</v>
       </c>
@@ -44775,7 +44774,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>30</v>
       </c>
@@ -44813,7 +44812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>145</v>
       </c>
@@ -44851,7 +44850,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>204</v>
       </c>
@@ -44889,7 +44888,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>688</v>
       </c>
@@ -44927,7 +44926,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>143</v>
       </c>
@@ -45003,7 +45002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>687</v>
       </c>
@@ -45041,7 +45040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>678</v>
       </c>
@@ -45079,7 +45078,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>25</v>
       </c>
@@ -45117,7 +45116,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>658</v>
       </c>
@@ -45155,7 +45154,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>691</v>
       </c>
@@ -45193,7 +45192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>51</v>
       </c>
@@ -45231,7 +45230,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>35</v>
       </c>
@@ -45269,7 +45268,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>701</v>
       </c>
@@ -45307,7 +45306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>37</v>
       </c>
@@ -45345,7 +45344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>39</v>
       </c>
@@ -45383,7 +45382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>28</v>
       </c>
@@ -45421,7 +45420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>685</v>
       </c>
@@ -45459,7 +45458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>20</v>
       </c>
@@ -45497,7 +45496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>139</v>
       </c>
@@ -45535,7 +45534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>120</v>
       </c>
@@ -45649,7 +45648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>41</v>
       </c>
@@ -45687,7 +45686,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>210</v>
       </c>
@@ -45725,7 +45724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>690</v>
       </c>
@@ -45763,7 +45762,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>49</v>
       </c>
@@ -45801,7 +45800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>128</v>
       </c>
@@ -45839,7 +45838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -45877,7 +45876,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>47</v>
       </c>
@@ -45915,7 +45914,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>682</v>
       </c>
@@ -45953,7 +45952,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>124</v>
       </c>
@@ -45991,7 +45990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>683</v>
       </c>
@@ -46029,7 +46028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>681</v>
       </c>
@@ -46067,7 +46066,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>53</v>
       </c>
@@ -46105,7 +46104,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>680</v>
       </c>
@@ -46143,7 +46142,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>118</v>
       </c>
@@ -46181,7 +46180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>12</v>
       </c>
@@ -46219,7 +46218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>684</v>
       </c>
@@ -46257,7 +46256,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>122</v>
       </c>
@@ -46295,7 +46294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>81</v>
       </c>
@@ -46333,7 +46332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>324</v>
       </c>
@@ -46371,7 +46370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>322</v>
       </c>
@@ -46409,7 +46408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>211</v>
       </c>
@@ -46447,7 +46446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>72</v>
       </c>
@@ -46485,7 +46484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>90</v>
       </c>
@@ -46523,7 +46522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>212</v>
       </c>
@@ -46561,7 +46560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>214</v>
       </c>
@@ -46599,7 +46598,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>75</v>
       </c>
@@ -46637,7 +46636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>305</v>
       </c>
@@ -46675,7 +46674,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>307</v>
       </c>
@@ -46713,7 +46712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>116</v>
       </c>
@@ -46751,7 +46750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>105</v>
       </c>
@@ -46789,7 +46788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>96</v>
       </c>
@@ -46827,7 +46826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>215</v>
       </c>
@@ -46865,7 +46864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>310</v>
       </c>
@@ -46903,7 +46902,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>108</v>
       </c>
@@ -46941,7 +46940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>217</v>
       </c>
@@ -46979,7 +46978,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>311</v>
       </c>
@@ -47017,7 +47016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>312</v>
       </c>
@@ -47055,7 +47054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>79</v>
       </c>
@@ -47093,7 +47092,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>106</v>
       </c>
@@ -47131,7 +47130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>76</v>
       </c>
@@ -47169,7 +47168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>83</v>
       </c>
@@ -47207,7 +47206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>85</v>
       </c>
@@ -47245,7 +47244,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>87</v>
       </c>
@@ -47283,7 +47282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>314</v>
       </c>
@@ -47321,7 +47320,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>67</v>
       </c>
@@ -47359,7 +47358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>154</v>
       </c>
@@ -47397,7 +47396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>86</v>
       </c>
@@ -47435,7 +47434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>114</v>
       </c>
@@ -47473,7 +47472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>218</v>
       </c>
@@ -47511,7 +47510,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>306</v>
       </c>
@@ -47549,7 +47548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>110</v>
       </c>
@@ -47587,7 +47586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>70</v>
       </c>
@@ -47625,7 +47624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>65</v>
       </c>
@@ -47663,7 +47662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>63</v>
       </c>
@@ -47701,7 +47700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>112</v>
       </c>
@@ -47739,7 +47738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>100</v>
       </c>
@@ -47777,7 +47776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>320</v>
       </c>
@@ -47815,7 +47814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>103</v>
       </c>
@@ -47853,7 +47852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>153</v>
       </c>
@@ -47891,7 +47890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>319</v>
       </c>
@@ -47929,7 +47928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>94</v>
       </c>
@@ -47967,7 +47966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>318</v>
       </c>
@@ -48005,7 +48004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>309</v>
       </c>
@@ -48043,7 +48042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>304</v>
       </c>
@@ -48081,7 +48080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>316</v>
       </c>
@@ -48119,7 +48118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>317</v>
       </c>
@@ -48157,7 +48156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>98</v>
       </c>
@@ -48195,7 +48194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>88</v>
       </c>
@@ -48233,7 +48232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>99</v>
       </c>
@@ -48271,7 +48270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>92</v>
       </c>
@@ -48309,7 +48308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>789</v>
       </c>
@@ -48347,7 +48346,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>790</v>
       </c>
@@ -48385,7 +48384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>792</v>
       </c>
@@ -48423,7 +48422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>794</v>
       </c>
@@ -48461,7 +48460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>795</v>
       </c>
@@ -48499,7 +48498,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="22">
         <v>29</v>
       </c>
@@ -48531,13 +48530,13 @@
         <v>871</v>
       </c>
       <c r="K538" s="23" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L538" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="19">
         <v>770</v>
       </c>
@@ -48569,13 +48568,13 @@
         <v>874</v>
       </c>
       <c r="K539" s="20" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L539" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="19">
         <v>756</v>
       </c>
@@ -48607,13 +48606,13 @@
         <v>17</v>
       </c>
       <c r="K540" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L540" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="19">
         <v>771</v>
       </c>
@@ -48651,7 +48650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="19">
         <v>772</v>
       </c>
@@ -48689,7 +48688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="19">
         <v>773</v>
       </c>
@@ -48721,13 +48720,13 @@
         <v>874</v>
       </c>
       <c r="K543" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L543" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="19">
         <v>774</v>
       </c>
@@ -48759,13 +48758,13 @@
         <v>871</v>
       </c>
       <c r="K544" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L544" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="19">
         <v>776</v>
       </c>
@@ -48797,13 +48796,13 @@
         <v>60</v>
       </c>
       <c r="K545" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L545" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="19">
         <v>777</v>
       </c>
@@ -48835,13 +48834,13 @@
         <v>871</v>
       </c>
       <c r="K546" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L546" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="19">
         <v>779</v>
       </c>
@@ -48873,13 +48872,13 @@
         <v>157</v>
       </c>
       <c r="K547" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L547" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="19">
         <v>780</v>
       </c>
@@ -48911,13 +48910,13 @@
         <v>871</v>
       </c>
       <c r="K548" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L548" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="19">
         <v>781</v>
       </c>
@@ -48949,13 +48948,13 @@
         <v>871</v>
       </c>
       <c r="K549" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L549" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="19">
         <v>721</v>
       </c>
@@ -48993,7 +48992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="19">
         <v>782</v>
       </c>
@@ -49031,7 +49030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="19">
         <v>783</v>
       </c>
@@ -49069,7 +49068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="19">
         <v>784</v>
       </c>
@@ -49107,7 +49106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="19">
         <v>785</v>
       </c>
@@ -49139,13 +49138,13 @@
         <v>874</v>
       </c>
       <c r="K554" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L554" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="19">
         <v>786</v>
       </c>
@@ -49183,7 +49182,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="19">
         <v>791</v>
       </c>
@@ -49215,13 +49214,13 @@
         <v>17</v>
       </c>
       <c r="K556" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L556" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="19">
         <v>790</v>
       </c>
@@ -49259,7 +49258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="19">
         <v>789</v>
       </c>
@@ -49291,13 +49290,13 @@
         <v>896</v>
       </c>
       <c r="K558" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L558" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="19">
         <v>793</v>
       </c>
@@ -49329,13 +49328,13 @@
         <v>896</v>
       </c>
       <c r="K559" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L559" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="19">
         <v>792</v>
       </c>
@@ -49367,13 +49366,13 @@
         <v>157</v>
       </c>
       <c r="K560" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L560" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="19">
         <v>794</v>
       </c>
@@ -49405,13 +49404,13 @@
         <v>157</v>
       </c>
       <c r="K561" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L561" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="19">
         <v>796</v>
       </c>
@@ -49443,7 +49442,7 @@
         <v>874</v>
       </c>
       <c r="K562" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L562" s="29" t="s">
         <v>157</v>
@@ -49487,7 +49486,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="19">
         <v>797</v>
       </c>
@@ -49519,13 +49518,13 @@
         <v>874</v>
       </c>
       <c r="K564" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L564" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="19">
         <v>650</v>
       </c>
@@ -49542,7 +49541,7 @@
         <v>41690</v>
       </c>
       <c r="F565" s="9">
-        <v>74652</v>
+        <v>41780</v>
       </c>
       <c r="G565" s="9">
         <v>41781</v>
@@ -49557,13 +49556,13 @@
         <v>871</v>
       </c>
       <c r="K565" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L565" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="19">
         <v>653</v>
       </c>
@@ -49601,7 +49600,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="19">
         <v>806</v>
       </c>
@@ -49633,13 +49632,13 @@
         <v>896</v>
       </c>
       <c r="K567" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L567" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="19">
         <v>804</v>
       </c>
@@ -49671,13 +49670,13 @@
         <v>896</v>
       </c>
       <c r="K568" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L568" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="19">
         <v>809</v>
       </c>
@@ -49709,13 +49708,13 @@
         <v>871</v>
       </c>
       <c r="K569" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L569" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="19">
         <v>800</v>
       </c>
@@ -49753,7 +49752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="19">
         <v>803</v>
       </c>
@@ -49785,13 +49784,13 @@
         <v>874</v>
       </c>
       <c r="K571" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L571" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="19">
         <v>799</v>
       </c>
@@ -49829,7 +49828,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="19">
         <v>807</v>
       </c>
@@ -49861,13 +49860,13 @@
         <v>157</v>
       </c>
       <c r="K573" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L573" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="19">
         <v>810</v>
       </c>
@@ -49899,13 +49898,13 @@
         <v>871</v>
       </c>
       <c r="K574" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L574" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="19">
         <v>811</v>
       </c>
@@ -49937,13 +49936,13 @@
         <v>874</v>
       </c>
       <c r="K575" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L575" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="19">
         <v>812</v>
       </c>
@@ -49975,13 +49974,13 @@
         <v>871</v>
       </c>
       <c r="K576" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L576" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="19">
         <v>813</v>
       </c>
@@ -50019,7 +50018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="19">
         <v>823</v>
       </c>
@@ -50051,13 +50050,13 @@
         <v>60</v>
       </c>
       <c r="K578" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L578" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="19">
         <v>824</v>
       </c>
@@ -50089,13 +50088,13 @@
         <v>874</v>
       </c>
       <c r="K579" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L579" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="19">
         <v>825</v>
       </c>
@@ -50133,7 +50132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="19">
         <v>826</v>
       </c>
@@ -50165,7 +50164,7 @@
         <v>157</v>
       </c>
       <c r="K581" s="27" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L581" s="29" t="s">
         <v>157</v>
@@ -50173,18 +50172,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K581">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Alkali"/>
-        <filter val="Patrol"/>
-        <filter val="South"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Died"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:K527">
       <sortCondition ref="A2:A532"/>
     </sortState>
